--- a/data/vyst_mo.xlsx
+++ b/data/vyst_mo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biazr\IdeaProjects\dbms_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0924D-3D76-4ED9-863E-C4F67F79C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8BFD03-3E6C-4CCD-ABA4-6614E5A0EFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1680">
   <si>
     <t>codvuz</t>
   </si>
@@ -5056,18 +5056,29 @@
   <si>
     <t>Реле положения</t>
   </si>
+  <si>
+    <t>16.01.21</t>
+  </si>
+  <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>29.03.31</t>
+  </si>
+  <si>
+    <t>30.03.15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
     <numFmt numFmtId="166" formatCode="d\-m"/>
     <numFmt numFmtId="167" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5089,6 +5100,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5121,7 +5137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5131,6 +5146,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5351,8 +5367,8 @@
   </sheetPr>
   <dimension ref="A1:Y413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5953,8 +5969,8 @@
       <c r="D20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3">
-        <v>44212</v>
+      <c r="E20" s="10" t="s">
+        <v>1676</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>92</v>
@@ -5985,8 +6001,8 @@
       <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="4">
-        <v>45311</v>
+      <c r="E21" s="10" t="s">
+        <v>1677</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>97</v>
@@ -6461,8 +6477,8 @@
       <c r="D37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="3">
-        <v>11411</v>
+      <c r="E37" s="10" t="s">
+        <v>1678</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>155</v>
@@ -6491,8 +6507,8 @@
       <c r="D38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="3">
-        <v>11411</v>
+      <c r="E38" s="10" t="s">
+        <v>1678</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>159</v>
@@ -7363,8 +7379,8 @@
       <c r="D68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E68" s="3">
-        <v>42093</v>
+      <c r="E68" s="10" t="s">
+        <v>1679</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>273</v>
@@ -8645,7 +8661,7 @@
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>45597</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -8677,7 +8693,7 @@
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>45627</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -8733,7 +8749,7 @@
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>45292</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -8765,7 +8781,7 @@
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>45352</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -8795,7 +8811,7 @@
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>45383</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -8827,7 +8843,7 @@
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>45444</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -8857,7 +8873,7 @@
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>45292</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -8885,7 +8901,7 @@
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>45474</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -8915,7 +8931,7 @@
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>45536</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -8947,7 +8963,7 @@
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <v>45597</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -8975,7 +8991,7 @@
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="5">
         <v>45627</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -10316,7 +10332,7 @@
       <c r="C167" s="1">
         <v>35</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="6" t="s">
         <v>712</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -12010,7 +12026,7 @@
       <c r="I222" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="J222" s="8" t="s">
+      <c r="J222" s="7" t="s">
         <v>936</v>
       </c>
     </row>
@@ -17103,49 +17119,49 @@
       <c r="J393" s="2"/>
     </row>
     <row r="394" spans="1:25" ht="14.4">
-      <c r="A394" s="7">
+      <c r="A394" s="6">
         <v>69</v>
       </c>
-      <c r="B394" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C394" s="7">
+      <c r="B394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="6">
         <v>31</v>
       </c>
-      <c r="D394" s="7" t="s">
+      <c r="D394" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E394" s="7" t="s">
+      <c r="E394" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="F394" s="7" t="s">
+      <c r="F394" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="G394" s="7" t="s">
+      <c r="G394" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H394" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I394" s="7" t="s">
+      <c r="H394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I394" s="6" t="s">
         <v>1616</v>
       </c>
-      <c r="J394" s="9"/>
-      <c r="K394" s="10"/>
-      <c r="L394" s="10"/>
-      <c r="M394" s="10"/>
-      <c r="N394" s="10"/>
-      <c r="O394" s="10"/>
-      <c r="P394" s="10"/>
-      <c r="Q394" s="10"/>
-      <c r="R394" s="10"/>
-      <c r="S394" s="10"/>
-      <c r="T394" s="10"/>
-      <c r="U394" s="10"/>
-      <c r="V394" s="10"/>
-      <c r="W394" s="10"/>
-      <c r="X394" s="10"/>
-      <c r="Y394" s="10"/>
+      <c r="J394" s="8"/>
+      <c r="K394" s="9"/>
+      <c r="L394" s="9"/>
+      <c r="M394" s="9"/>
+      <c r="N394" s="9"/>
+      <c r="O394" s="9"/>
+      <c r="P394" s="9"/>
+      <c r="Q394" s="9"/>
+      <c r="R394" s="9"/>
+      <c r="S394" s="9"/>
+      <c r="T394" s="9"/>
+      <c r="U394" s="9"/>
+      <c r="V394" s="9"/>
+      <c r="W394" s="9"/>
+      <c r="X394" s="9"/>
+      <c r="Y394" s="9"/>
     </row>
     <row r="395" spans="1:25" ht="14.4">
       <c r="A395" s="1">
@@ -17632,6 +17648,7 @@
       <c r="J413" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>